--- a/group-reports/tables/sharif-results-test-3.xlsx
+++ b/group-reports/tables/sharif-results-test-3.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>218 usec</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>971328</t>
+          <t>971328 usec</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>3879.99</t>
+          <t>3879.99 usec</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>215 usec</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>598419</t>
+          <t>598419 usec</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>3532.90</t>
+          <t>3532.90 usec</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -780,17 +780,17 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>226 usec</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>1268.1k</t>
+          <t>1268.1k usec</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>4074.94</t>
+          <t>4074.94 usec</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -857,17 +857,17 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>214 usec</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>1000.3k</t>
+          <t>1000.3k usec</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>3749.98</t>
+          <t>3749.98 usec</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>209 usec</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>940011</t>
+          <t>940011 usec</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>3762.27</t>
+          <t>3762.27 usec</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>208 usec</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>1178.9k</t>
+          <t>1178.9k usec</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>3681.92</t>
+          <t>3681.92 usec</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>222 usec</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>986214</t>
+          <t>986214 usec</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>3693.27</t>
+          <t>3693.27 usec</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>212 usec</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>928383</t>
+          <t>928383 usec</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>4067.58</t>
+          <t>4067.58 usec</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>212 usec</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>20214k</t>
+          <t>20214k usec</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>4097.05</t>
+          <t>4097.05 usec</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>221 usec</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>20188k</t>
+          <t>20188k usec</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>3768.80</t>
+          <t>3768.80 usec</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>220 usec</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>1094.5k</t>
+          <t>1094.5k usec</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>4024.12</t>
+          <t>4024.12 usec</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>222 usec</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>306948</t>
+          <t>306948 usec</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>3537.04</t>
+          <t>3537.04 usec</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>219 usec</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>903844</t>
+          <t>903844 usec</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>3763.55</t>
+          <t>3763.55 usec</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -1627,17 +1627,17 @@
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>215 usec</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>842619</t>
+          <t>842619 usec</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>3717.35</t>
+          <t>3717.35 usec</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>220 usec</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>18148k</t>
+          <t>18148k usec</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>4012.95</t>
+          <t>4012.95 usec</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -1781,17 +1781,17 @@
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>213 usec</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>1108.1k</t>
+          <t>1108.1k usec</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>3442.26</t>
+          <t>3442.26 usec</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>216 usec</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>593961</t>
+          <t>593961 usec</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>3633.82</t>
+          <t>3633.82 usec</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>218 usec</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>1120.0k</t>
+          <t>1120.0k usec</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>3523.73</t>
+          <t>3523.73 usec</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2012,17 +2012,17 @@
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>215 usec</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>976329</t>
+          <t>976329 usec</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>3796.97</t>
+          <t>3796.97 usec</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -2089,17 +2089,17 @@
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>212 usec</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>965483</t>
+          <t>965483 usec</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>3639.85</t>
+          <t>3639.85 usec</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>221 usec</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>865451</t>
+          <t>865451 usec</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>3858.73</t>
+          <t>3858.73 usec</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
@@ -2243,17 +2243,17 @@
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>217 usec</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>832084</t>
+          <t>832084 usec</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>3633.28</t>
+          <t>3633.28 usec</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
@@ -2320,17 +2320,17 @@
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>217 usec</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>893222</t>
+          <t>893222 usec</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>3513.22</t>
+          <t>3513.22 usec</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>216 usec</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>1186.3k</t>
+          <t>1186.3k usec</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>3726.77</t>
+          <t>3726.77 usec</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
@@ -2474,17 +2474,17 @@
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>230 usec</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>930747</t>
+          <t>930747 usec</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>3778.22</t>
+          <t>3778.22 usec</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
@@ -2551,17 +2551,17 @@
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>175 usec</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>980284</t>
+          <t>980284 usec</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>3777.04</t>
+          <t>3777.04 usec</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
@@ -2628,17 +2628,17 @@
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>212 usec</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>20459k</t>
+          <t>20459k usec</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>4237.70</t>
+          <t>4237.70 usec</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
@@ -2705,17 +2705,17 @@
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>199 usec</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>555835</t>
+          <t>555835 usec</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>3664.02</t>
+          <t>3664.02 usec</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
@@ -2782,17 +2782,17 @@
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>232 usec</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>1063.7k</t>
+          <t>1063.7k usec</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>5143.30</t>
+          <t>5143.30 usec</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
@@ -2859,17 +2859,17 @@
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>221 usec</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>20013k</t>
+          <t>20013k usec</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>3838.78</t>
+          <t>3838.78 usec</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
@@ -2936,17 +2936,17 @@
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>216 usec</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>1139.7k</t>
+          <t>1139.7k usec</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>3751.82</t>
+          <t>3751.82 usec</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
@@ -3013,17 +3013,17 @@
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>228 usec</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>907095</t>
+          <t>907095 usec</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>4066.36</t>
+          <t>4066.36 usec</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>222 usec</t>
         </is>
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>944583</t>
+          <t>944583 usec</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>3482.73</t>
+          <t>3482.73 usec</t>
         </is>
       </c>
       <c r="L35" s="1" t="inlineStr">
@@ -3167,17 +3167,17 @@
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>220 usec</t>
         </is>
       </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>714239</t>
+          <t>714239 usec</t>
         </is>
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>3471.48</t>
+          <t>3471.48 usec</t>
         </is>
       </c>
       <c r="L36" s="1" t="inlineStr">
@@ -3244,17 +3244,17 @@
       </c>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>223 usec</t>
         </is>
       </c>
       <c r="J37" s="1" t="inlineStr">
         <is>
-          <t>618123</t>
+          <t>618123 usec</t>
         </is>
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>3808.83</t>
+          <t>3808.83 usec</t>
         </is>
       </c>
       <c r="L37" s="1" t="inlineStr">
@@ -3321,17 +3321,17 @@
       </c>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>216 usec</t>
         </is>
       </c>
       <c r="J38" s="1" t="inlineStr">
         <is>
-          <t>875121</t>
+          <t>875121 usec</t>
         </is>
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>3495.58</t>
+          <t>3495.58 usec</t>
         </is>
       </c>
       <c r="L38" s="1" t="inlineStr">
